--- a/Results/Opinion/AMBIENCE.xlsx
+++ b/Results/Opinion/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>opini</t>
   </si>
@@ -115,9 +115,6 @@
     <t>interior</t>
   </si>
   <si>
-    <t>italian</t>
-  </si>
-  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>noisy</t>
   </si>
   <si>
-    <t>only</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -235,10 +229,10 @@
     <t>worth</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>negative</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
 </sst>
 </file>
@@ -596,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -629,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -640,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -651,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -662,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -673,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -684,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -695,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -706,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -717,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -728,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -739,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -750,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -761,7 +755,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -772,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -783,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -794,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -805,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -816,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -827,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -838,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -849,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -860,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -871,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -882,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -893,7 +887,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -904,7 +898,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -915,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -926,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -937,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -948,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -959,7 +953,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -970,7 +964,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -981,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -992,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1003,7 +997,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1014,7 +1008,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1025,7 +1019,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1036,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1047,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1058,7 +1052,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1069,7 +1063,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1080,7 +1074,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1091,7 +1085,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1102,7 +1096,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1113,7 +1107,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1124,7 +1118,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1135,7 +1129,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1146,7 +1140,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1157,7 +1151,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1168,7 +1162,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1179,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1190,7 +1184,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1201,7 +1195,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1212,7 +1206,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1223,7 +1217,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1234,7 +1228,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1245,7 +1239,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1256,7 +1250,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1267,7 +1261,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1278,7 +1272,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1289,7 +1283,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1300,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1311,7 +1305,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1322,7 +1316,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1333,7 +1327,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1344,7 +1338,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1355,7 +1349,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1366,29 +1360,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/AMBIENCE.xlsx
+++ b/Results/Opinion/AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>opini</t>
   </si>
@@ -67,9 +67,6 @@
     <t>dark</t>
   </si>
   <si>
-    <t>delightful</t>
-  </si>
-  <si>
     <t>delish</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>elegant</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>high</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>interior</t>
   </si>
   <si>
+    <t>italian</t>
+  </si>
+  <si>
     <t>japanese</t>
   </si>
   <si>
@@ -148,9 +148,6 @@
     <t>noisy</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>outdoor</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
     <t>perfecttheyre</t>
   </si>
   <si>
+    <t>personal</t>
+  </si>
+  <si>
     <t>pleasant</t>
   </si>
   <si>
@@ -175,9 +175,6 @@
     <t>reasonable</t>
   </si>
   <si>
-    <t>refreshing</t>
-  </si>
-  <si>
     <t>romantic</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
     <t>small</t>
   </si>
   <si>
+    <t>soggy</t>
+  </si>
+  <si>
     <t>sohovillageupper</t>
   </si>
   <si>
@@ -220,19 +220,16 @@
     <t>warm</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>wooden</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -645,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -667,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -722,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -733,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -744,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -766,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -799,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -810,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -821,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -865,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -931,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -942,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -997,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1019,7 +1016,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1030,7 +1027,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1063,7 +1060,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1085,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1140,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1184,7 +1181,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1195,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1217,7 +1214,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1239,7 +1236,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1250,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1272,7 +1269,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1283,7 +1280,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1294,7 +1291,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1305,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1338,7 +1335,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1349,17 +1346,6 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
         <v>71</v>
       </c>
     </row>
